--- a/CASUAL/LA CHO/COSINO, RIMWELL.xlsx
+++ b/CASUAL/LA CHO/COSINO, RIMWELL.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>PERIOD</t>
   </si>
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>11/3,25/2022</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -912,7 +921,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -955,7 +964,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,7 +1028,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1079,7 +1088,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1145,7 +1154,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1208,7 +1217,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1315,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,7 +1374,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1430,7 +1439,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,7 +1482,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1557,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1743,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1809,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +1867,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1924,7 +1933,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1980,7 +1989,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,7 +2064,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,7 +2107,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,7 +2173,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2229,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2325,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2663,12 +2672,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A9" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A18" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2831,7 +2840,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>12.167000000000002</v>
+        <v>17.667000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2841,7 +2850,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>16.167000000000002</v>
+        <v>23.667000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3311,15 +3320,17 @@
       <c r="B31" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D31" s="39">
         <v>1</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G31" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
@@ -3333,13 +3344,15 @@
         <v>45108</v>
       </c>
       <c r="B32" s="20"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D32" s="39"/>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G32" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
@@ -3351,13 +3364,15 @@
         <v>45139</v>
       </c>
       <c r="B33" s="20"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D33" s="39"/>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G33" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
@@ -3369,13 +3384,15 @@
         <v>45170</v>
       </c>
       <c r="B34" s="20"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D34" s="39"/>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G34" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
@@ -3386,45 +3403,63 @@
       <c r="A35" s="40">
         <v>45200</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D35" s="39"/>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G35" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="20"/>
+      <c r="K35" s="49">
+        <v>45219</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>45231</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="39"/>
+      <c r="B36" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D36" s="39">
+        <v>1</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G36" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
+      <c r="K36" s="49">
+        <v>45275</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>45261</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="39"/>
+      <c r="D37" s="39">
+        <v>1</v>
+      </c>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
       <c r="G37" s="13" t="str">
@@ -3434,10 +3469,14 @@
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
+      <c r="K37" s="49">
+        <v>45289</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="48" t="s">
+        <v>60</v>
+      </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
@@ -3453,7 +3492,9 @@
       <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+      <c r="A39" s="40">
+        <v>45292</v>
+      </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
       <c r="D39" s="39"/>
@@ -3469,7 +3510,9 @@
       <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+      <c r="A40" s="40">
+        <v>45323</v>
+      </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
       <c r="D40" s="39"/>
@@ -3485,7 +3528,9 @@
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="40">
+        <v>45352</v>
+      </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
       <c r="D41" s="39"/>
@@ -3501,7 +3546,9 @@
       <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="A42" s="40">
+        <v>45383</v>
+      </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
       <c r="D42" s="39"/>
@@ -3517,7 +3564,9 @@
       <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+      <c r="A43" s="40">
+        <v>45413</v>
+      </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
       <c r="D43" s="39"/>
@@ -3533,7 +3582,9 @@
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="40">
+        <v>45444</v>
+      </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
       <c r="D44" s="39"/>
@@ -3549,7 +3600,9 @@
       <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+      <c r="A45" s="40">
+        <v>45474</v>
+      </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
       <c r="D45" s="39"/>
@@ -3565,7 +3618,9 @@
       <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
+      <c r="A46" s="40">
+        <v>45505</v>
+      </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
       <c r="D46" s="39"/>
@@ -3581,7 +3636,9 @@
       <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
+      <c r="A47" s="40">
+        <v>45536</v>
+      </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
@@ -3597,7 +3654,9 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+      <c r="A48" s="40">
+        <v>45566</v>
+      </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
@@ -3613,7 +3672,9 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
+      <c r="A49" s="40">
+        <v>45597</v>
+      </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
@@ -3629,7 +3690,9 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+      <c r="A50" s="40">
+        <v>45627</v>
+      </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
@@ -3645,7 +3708,9 @@
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+      <c r="A51" s="40">
+        <v>45658</v>
+      </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
       <c r="D51" s="39"/>
@@ -4925,20 +4990,36 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="41"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
